--- a/downloads/transactions.xlsx
+++ b/downloads/transactions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Transaction ID.</t>
   </si>
@@ -26,6 +26,30 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>2022-06-29T21:06:17.000Z</t>
+  </si>
+  <si>
+    <t>2022-06-29T21:06:16.000Z</t>
+  </si>
+  <si>
+    <t>2022-06-29T21:06:15.000Z</t>
+  </si>
+  <si>
+    <t>2022-06-29T21:06:14.000Z</t>
+  </si>
+  <si>
+    <t>2022-06-29T21:06:12.000Z</t>
+  </si>
+  <si>
+    <t>2022-06-29T21:06:10.000Z</t>
+  </si>
+  <si>
+    <t>2022-06-29T21:06:09.000Z</t>
+  </si>
+  <si>
+    <t>2022-06-29T21:06:06.000Z</t>
   </si>
 </sst>
 </file>
@@ -65,10 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,8 +462,8 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
-        <v>44741.87936342593</v>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,8 +476,8 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>44741.87935185185</v>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -467,8 +490,8 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
-        <v>44741.87934027778</v>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -481,8 +504,8 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>44741.87934027778</v>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,8 +518,8 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
-        <v>44741.879328703704</v>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -509,8 +532,8 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
-        <v>44741.87930555556</v>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,8 +546,8 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2">
-        <v>44741.879282407404</v>
+      <c r="D8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -537,8 +560,8 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
-        <v>44741.879270833335</v>
+      <c r="D9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,8 +574,8 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
-        <v>44741.87923611111</v>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
